--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4351927.246602038</v>
+        <v>4423579.039162084</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682213.8818051493</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7049188.795279693</v>
+        <v>6954081.271131959</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>290.917183046633</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>46.53270054897229</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>133.4548648132219</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>110.0115294480439</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>4.622348212024178</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,13 +952,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>74.08031997323604</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>56.881969878158</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>42.93165166918606</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>30.99636303581896</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>1.681761834235435</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>6.596015618368514</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1345,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>144.3968844608068</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527407</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,10 +1539,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>106.4165381846895</v>
+        <v>104.7919727697736</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274067</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1810,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>143.9705362099828</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>195.5840668773373</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710089</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>2.65416919620698</v>
       </c>
       <c r="U19" t="n">
-        <v>256.1117638868774</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2090,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2135,7 +2137,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2248,13 +2250,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>24.34682769251261</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -2290,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>67.90088782653709</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2491,10 +2493,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>90.48077270931444</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>64.34190763938432</v>
       </c>
     </row>
     <row r="26">
@@ -2564,16 +2566,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113175</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274081</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>39.59190500013656</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>95.77850328492714</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522967</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898728</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>80.4835828885718</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692862</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329069</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373705</v>
+        <v>114.9309043193592</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789557</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533462932</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415222</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539627</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287487</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689368</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5777652593966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,7 +3085,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898721</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857173</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692855</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329062</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378955</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415209</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539626</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287486</v>
+        <v>203.5330926723471</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689365</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710089</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3281,7 +3283,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274074</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857173</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692855</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329017</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373698</v>
+        <v>70.17030625426671</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463135</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539626</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689367</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898722</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857175</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692856</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329064</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373698</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789552</v>
+        <v>49.12199829633357</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539626</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689367</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3794,7 +3796,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898714</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857166</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692848</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329055</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373689</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789543</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463127</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415208</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539631</v>
+        <v>161.4046520073173</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689372</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,13 +4194,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>200.4265149898305</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>101.3913673420928</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1315.683675137274</v>
+        <v>877.1727159660345</v>
       </c>
       <c r="C2" t="n">
-        <v>1315.683675137274</v>
+        <v>508.2101990256228</v>
       </c>
       <c r="D2" t="n">
-        <v>1315.683675137274</v>
+        <v>508.2101990256228</v>
       </c>
       <c r="E2" t="n">
-        <v>929.8954225390298</v>
+        <v>508.2101990256228</v>
       </c>
       <c r="F2" t="n">
-        <v>518.9095177494223</v>
+        <v>501.2646982764193</v>
       </c>
       <c r="G2" t="n">
-        <v>100.9457096476092</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>100.9457096476092</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4334,7 +4336,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2092.422847177208</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2092.422847177208</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X2" t="n">
-        <v>2092.422847177208</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y2" t="n">
-        <v>1702.283515201396</v>
+        <v>877.1727159660345</v>
       </c>
     </row>
     <row r="3">
@@ -4410,22 +4412,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C4" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D4" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F4" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>2532.929278121115</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>2243.755667775683</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>2243.755667775683</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>2243.755667775683</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X4" t="n">
-        <v>2243.755667775683</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y4" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1426.815961912944</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C5" t="n">
-        <v>1426.815961912944</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D5" t="n">
-        <v>1426.815961912944</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>1041.0277093147</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>630.0418045250922</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>212.077996423279</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="V5" t="n">
-        <v>2169.72394915887</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="W5" t="n">
-        <v>1816.955293888756</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="X5" t="n">
-        <v>1816.955293888756</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="Y5" t="n">
-        <v>1426.815961912944</v>
+        <v>2013.546485980902</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4656,31 +4658,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>111.3995170508271</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>111.3995170508271</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4749,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245969</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245969</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>513.8405610245969</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>293.0479818810668</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X8" t="n">
-        <v>1982.008090792599</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y8" t="n">
-        <v>1591.868758816787</v>
+        <v>1780.41262192169</v>
       </c>
     </row>
     <row r="9">
@@ -4884,10 +4886,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>210.7222632714563</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4993,19 +4995,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>582.2735453571344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694736</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="X10" t="n">
-        <v>210.7222632714563</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y10" t="n">
-        <v>210.7222632714563</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5018,46 +5020,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5072,16 +5074,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5118,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>395.5481934947356</v>
+        <v>879.5496456007323</v>
       </c>
       <c r="C13" t="n">
-        <v>395.5481934947356</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="D13" t="n">
-        <v>395.5481934947356</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
         <v>247.6350999123426</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1391.424817846095</v>
+        <v>1281.990689574502</v>
       </c>
       <c r="T13" t="n">
-        <v>1167.639402635601</v>
+        <v>1281.990689574502</v>
       </c>
       <c r="U13" t="n">
-        <v>1167.639402635601</v>
+        <v>1281.990689574502</v>
       </c>
       <c r="V13" t="n">
-        <v>912.9549144297137</v>
+        <v>1281.990689574502</v>
       </c>
       <c r="W13" t="n">
-        <v>623.537744392753</v>
+        <v>1281.990689574502</v>
       </c>
       <c r="X13" t="n">
-        <v>395.5481934947356</v>
+        <v>1281.990689574502</v>
       </c>
       <c r="Y13" t="n">
-        <v>395.5481934947356</v>
+        <v>1061.198110430972</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5257,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155878</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5291,7 +5293,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899127</v>
@@ -5300,7 +5302,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5309,16 +5311,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>247.3337308726216</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C16" t="n">
         <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655742</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286137</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="X16" t="n">
-        <v>468.1263100161517</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y16" t="n">
-        <v>247.3337308726216</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5537,28 +5539,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>247.3337308726216</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="C19" t="n">
-        <v>247.3337308726216</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471194</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>1185.240178049213</v>
       </c>
       <c r="U19" t="n">
-        <v>1240.217519157017</v>
+        <v>1185.240178049213</v>
       </c>
       <c r="V19" t="n">
-        <v>985.5330309511296</v>
+        <v>1185.240178049213</v>
       </c>
       <c r="W19" t="n">
-        <v>696.115860914169</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X19" t="n">
-        <v>468.1263100161517</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y19" t="n">
-        <v>247.3337308726216</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="20">
@@ -5729,13 +5731,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
         <v>904.3190116155888</v>
@@ -5747,22 +5749,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643324</v>
@@ -5771,25 +5773,25 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5826,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571611</v>
+        <v>462.7283310300493</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636253</v>
+        <v>709.4934589365134</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1141.200876391121</v>
+        <v>868.4856756861158</v>
       </c>
       <c r="C22" t="n">
-        <v>972.2646934632137</v>
+        <v>699.5494927582089</v>
       </c>
       <c r="D22" t="n">
-        <v>822.1480540508779</v>
+        <v>549.4328533458731</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684848</v>
+        <v>401.51975976348</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>401.51975976348</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>233.3444380833006</v>
       </c>
       <c r="H22" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241958</v>
@@ -5938,22 +5940,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1430.329515177562</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U22" t="n">
-        <v>1141.200876391121</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V22" t="n">
-        <v>1141.200876391121</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W22" t="n">
-        <v>1141.200876391121</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="X22" t="n">
-        <v>1141.200876391121</v>
+        <v>1270.926719659886</v>
       </c>
       <c r="Y22" t="n">
-        <v>1141.200876391121</v>
+        <v>1050.134140516356</v>
       </c>
     </row>
     <row r="23">
@@ -5978,13 +5980,13 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805457</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822468</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
@@ -6005,10 +6007,10 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6063,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>729.1316371486756</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C25" t="n">
-        <v>560.1954542207687</v>
+        <v>972.2646934632138</v>
       </c>
       <c r="D25" t="n">
-        <v>560.1954542207687</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383756</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799365</v>
@@ -6169,28 +6171,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>983.8161253545625</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V25" t="n">
-        <v>729.1316371486756</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W25" t="n">
-        <v>729.1316371486756</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X25" t="n">
-        <v>729.1316371486756</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y25" t="n">
-        <v>729.1316371486756</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6217,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6239,31 +6241,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6300,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341676</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P27" t="n">
         <v>2536.440602918915</v>
@@ -6358,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>710.3120936331045</v>
+        <v>399.1615145228562</v>
       </c>
       <c r="C28" t="n">
-        <v>710.3120936331045</v>
+        <v>399.1615145228562</v>
       </c>
       <c r="D28" t="n">
-        <v>560.1954542207687</v>
+        <v>399.1615145228562</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404653</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557903</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557903</v>
+        <v>909.3712637033469</v>
       </c>
       <c r="W28" t="n">
-        <v>1209.499100520942</v>
+        <v>619.9540936663864</v>
       </c>
       <c r="X28" t="n">
-        <v>1112.753137606874</v>
+        <v>619.9540936663864</v>
       </c>
       <c r="Y28" t="n">
-        <v>891.9605584633442</v>
+        <v>399.1615145228562</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
@@ -6476,37 +6478,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1016.813592216475</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1346.676219880508</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108317</v>
+        <v>213.3089140050932</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229657</v>
+        <v>213.3089140050932</v>
       </c>
       <c r="D31" t="n">
-        <v>478.047598850671</v>
+        <v>213.3089140050932</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083189</v>
+        <v>213.3089140050932</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504495</v>
+        <v>213.3089140050932</v>
       </c>
       <c r="G31" t="n">
-        <v>221.529509210311</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982953</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>177.0503551525399</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254955</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>709.848946864969</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384656</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986522</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942115</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771662</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025262</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862496</v>
+        <v>843.7395088768803</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045196</v>
+        <v>615.749957978863</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010304</v>
+        <v>394.9573788353329</v>
       </c>
     </row>
     <row r="32">
@@ -6674,58 +6676,58 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6734,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,22 +6776,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277034</v>
+        <v>410.8745301331628</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341676</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O33" t="n">
         <v>2331.418122136705</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506725</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850451</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>982.3321745379599</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>982.3321745379599</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>727.647686332073</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701562</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>796.3635653766204</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.683698656582</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N36" t="n">
-        <v>1433.546326320615</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>785.4801130615103</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>616.5439301336035</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>466.4272907212677</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083202</v>
+        <v>318.5141971388746</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>318.5141971388746</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>967.1285778917501</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
@@ -7169,16 +7171,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7187,37 +7189,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108335</v>
+        <v>613.8011874802282</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229676</v>
+        <v>444.8650045523214</v>
       </c>
       <c r="D40" t="n">
-        <v>478.047598850673</v>
+        <v>294.7483651399856</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083208</v>
+        <v>146.8352715575925</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504515</v>
+        <v>146.8352715575925</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>146.8352715575925</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116389</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986524</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862498</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045214</v>
+        <v>1016.242231453998</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010323</v>
+        <v>795.449652310468</v>
       </c>
     </row>
     <row r="41">
@@ -7400,22 +7402,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7424,22 +7426,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.357857465301</v>
@@ -7476,37 +7478,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147082</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1333.825180851559</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1663.687808515592</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229671</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525401</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254959</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649695</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184157</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1335.881268530309</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1112.095853319815</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>822.9672145333731</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>568.2827263274862</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045204</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,22 +7633,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514088</v>
@@ -7655,43 +7657,43 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>355.6416303362487</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C46" t="n">
-        <v>355.6416303362487</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D46" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765191</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>583.631181234266</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>583.631181234266</v>
+        <v>428.9821957028613</v>
       </c>
       <c r="X46" t="n">
-        <v>355.6416303362487</v>
+        <v>428.9821957028613</v>
       </c>
       <c r="Y46" t="n">
-        <v>355.6416303362487</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8766,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165111</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>230.7151863772027</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>176.7176547498442</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,13 +9494,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776744</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445214</v>
@@ -9717,10 +9719,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>369.0893880493729</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,13 +9731,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445216</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.7164198729829</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,25 +9959,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>124.3400780863231</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>176.7176547498445</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,19 +10430,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>124.3400780863228</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10449,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10665,10 +10667,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>96.0374492781462</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10899,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504506</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>73.64859338270588</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>423.3376789165111</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,10 +23427,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>91.50427179891373</v>
+        <v>93.12883721382963</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23698,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>142.2668161885945</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>30.12558851169985</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>218.8933918621823</v>
       </c>
       <c r="U19" t="n">
-        <v>30.1255885116999</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>124.5670006750235</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24178,10 +24180,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>153.6466732318522</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24190,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>195.7565796892629</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24430,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>154.2427457127105</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>106.8420576464326</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>129.93115210411</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>51.56266414401836</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,16 +25128,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>18.01446838604213</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>96.32326220911088</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,19 +25365,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>99.79183007120255</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>36.51615797628597</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26041,7 +26043,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>51.71112833399746</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>185.1316309944982</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>593672.5275719949</v>
+        <v>593672.527571995</v>
       </c>
     </row>
     <row r="6">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>622910.2653636443</v>
+        <v>593672.527571995</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>622910.2653636443</v>
+        <v>593672.527571995</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>622910.2653636443</v>
+        <v>593672.527571995</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>622910.2653636443</v>
+        <v>593672.527571995</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>622910.2653636443</v>
+        <v>593672.5275719949</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>593672.527571995</v>
+        <v>593672.5275719949</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.769864283</v>
       </c>
       <c r="C2" t="n">
         <v>821041.7698642833</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="E2" t="n">
         <v>782058.1194754175</v>
@@ -26326,7 +26328,7 @@
         <v>782058.1194754177</v>
       </c>
       <c r="G2" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="H2" t="n">
         <v>782058.1194754178</v>
@@ -26335,25 +26337,25 @@
         <v>782058.1194754179</v>
       </c>
       <c r="J2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="K2" t="n">
-        <v>821041.7698642844</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="L2" t="n">
-        <v>821041.7698642845</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="M2" t="n">
-        <v>821041.7698642841</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="N2" t="n">
-        <v>821041.7698642845</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="O2" t="n">
-        <v>821041.7698642849</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="P2" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754177</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.014195044670487e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371256</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.074904503184371e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26423,43 @@
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007534</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007425</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007409</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007436</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="K4" t="n">
-        <v>30335.51889732786</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732795</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732789</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732794</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.5188973279</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="N5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="O5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="K5" t="n">
-        <v>97715.10582002542</v>
-      </c>
-      <c r="L5" t="n">
-        <v>97715.1058200254</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.10582002542</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.1058200254</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.10582002543</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871667</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>297.7638704087876</v>
+        <v>297.763870408322</v>
       </c>
       <c r="C6" t="n">
         <v>590265.643084953</v>
       </c>
       <c r="D6" t="n">
-        <v>590265.6430849527</v>
+        <v>590265.643084953</v>
       </c>
       <c r="E6" t="n">
         <v>156994.0253937973</v>
       </c>
       <c r="F6" t="n">
-        <v>682154.0618706935</v>
+        <v>682154.0618706936</v>
       </c>
       <c r="G6" t="n">
-        <v>682154.0618706938</v>
+        <v>682154.061870693</v>
       </c>
       <c r="H6" t="n">
         <v>682154.0618706937</v>
       </c>
       <c r="I6" t="n">
-        <v>682154.0618706938</v>
+        <v>682154.0618706937</v>
       </c>
       <c r="J6" t="n">
-        <v>505730.8426781007</v>
+        <v>505730.8426781008</v>
       </c>
       <c r="K6" t="n">
-        <v>638485.6330432186</v>
+        <v>682154.0618706935</v>
       </c>
       <c r="L6" t="n">
-        <v>692991.1451469312</v>
+        <v>682154.0618706935</v>
       </c>
       <c r="M6" t="n">
-        <v>558190.1299130935</v>
+        <v>547353.0466368563</v>
       </c>
       <c r="N6" t="n">
-        <v>692991.1451469312</v>
+        <v>682154.0618706936</v>
       </c>
       <c r="O6" t="n">
-        <v>692991.1451469315</v>
+        <v>682154.0618706936</v>
       </c>
       <c r="P6" t="n">
-        <v>682154.0618706939</v>
+        <v>682154.0618706935</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964055</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26744,13 +26746,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541005</v>
@@ -26759,25 +26761,25 @@
         <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26802,34 +26804,34 @@
         <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
+        <v>1215.213643253574</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1215.213643253574</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1215.213643253574</v>
+      </c>
+      <c r="J4" t="n">
         <v>1215.213643253573</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
         <v>1215.213643253573</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1215.213643253573</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1215.213643253574</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26966,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.287272754555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>122.866986974162</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>105.398615695889</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27588,22 +27590,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>91.58024064486233</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>108.5731239040509</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>319.300424552333</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,13 +27672,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>177.1438475350533</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>91.73350314005435</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>243.3502225727917</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27916,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>338.7347376426501</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>384.5561768218182</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28013,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>160.6508054802593</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28065,13 +28067,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>141.8849897811709</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28564,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-1.307398633798584e-12</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28855,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-1.620037437533028e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964055</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964055</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964055</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964055</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964055</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964055</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964055</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964055</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964055</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964055</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964055</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964055</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964055</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964055</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964055</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964055</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964055</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964055</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964055</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964055</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964055</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964055</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964055</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31276,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32072,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32151,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32175,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
         <v>34.18755300444946</v>
@@ -32245,13 +32247,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647497</v>
@@ -32266,7 +32268,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32321,7 +32323,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813463</v>
@@ -32342,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
         <v>45.03122946298631</v>
@@ -32394,10 +32396,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
         <v>234.725964217132</v>
@@ -32406,7 +32408,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32418,13 +32420,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32938,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34780,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
@@ -35893,19 +35895,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>479.9728913332272</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
@@ -36048,7 +36050,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056037</v>
@@ -36060,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>327.2930933377835</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560244</v>
@@ -36212,13 +36214,13 @@
         <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091992</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,10 +36439,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>618.3470930053973</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504664</v>
@@ -36449,13 +36451,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36598,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734238</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>487.1420318003109</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.6396602952061</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595511</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095691</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086131</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352442</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414413</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015153</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>274.915516674262</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734238</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>378.4011515192544</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734238</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37861,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>356.0122956238141</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520624</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595513</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095693</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352444</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015155</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4423579.039162084</v>
+        <v>4416562.024270375</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6954081.271131959</v>
+        <v>6954081.271131961</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>301.6509053416993</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>290.917183046633</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>42.93165166918606</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>110.0115294480439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>126.6305324976341</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>74.08031997323604</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>90.27998741352634</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>42.93165166918606</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>159.3199338524835</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.681761834235435</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586891</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>144.3968844608068</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527407</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498017</v>
+        <v>251.0785952498003</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>104.7919727697736</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1660,7 +1660,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385031</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1821,19 +1821,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>143.9705362099828</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710089</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T19" t="n">
-        <v>2.65416919620698</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498026</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>24.34682769251261</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>64.34190763938432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2614,7 +2614,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>39.59190500013656</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648052003</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>114.9309043193592</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>188.1607094910707</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T34" t="n">
-        <v>203.5330926723471</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274074</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>70.17030625426671</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>49.12199829633357</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>26.97444673954876</v>
       </c>
       <c r="S43" t="n">
-        <v>161.4046520073173</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -4197,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>101.3913673420928</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>877.1727159660345</v>
+        <v>532.9757468194221</v>
       </c>
       <c r="C2" t="n">
-        <v>508.2101990256228</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="D2" t="n">
-        <v>508.2101990256228</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E2" t="n">
-        <v>508.2101990256228</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>501.2646982764193</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4366,16 +4366,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1640.777806202926</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1267.312047941846</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>877.1727159660345</v>
+        <v>919.5755868835438</v>
       </c>
     </row>
     <row r="3">
@@ -4409,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694736</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1626.94664591678</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>946.7754666214607</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>588.5097680147103</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>202.721515416466</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>195.7760146672626</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>181.8526106058535</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>181.8526106058535</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2403.685817956713</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2403.685817956713</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.685817956713</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>2403.685817956713</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y5" t="n">
-        <v>2013.546485980902</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U7" t="n">
-        <v>536.6170209242687</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V7" t="n">
-        <v>281.9325327183818</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>293.047981881067</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1780.41262192169</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C8" t="n">
-        <v>1780.41262192169</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>74.81188663097704</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>74.81188663097704</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4819,37 +4819,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.111371249201</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X8" t="n">
-        <v>1782.111371249201</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y8" t="n">
-        <v>1780.41262192169</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="9">
@@ -4874,28 +4874,28 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>582.2735453571344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V10" t="n">
-        <v>327.5890571512475</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W10" t="n">
-        <v>327.5890571512475</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064347</v>
       </c>
     </row>
     <row r="11">
@@ -5017,55 +5017,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5074,19 +5074,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>879.5496456007323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1281.990689574502</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1281.990689574502</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1281.990689574502</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>1281.990689574502</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W13" t="n">
-        <v>1281.990689574502</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X13" t="n">
-        <v>1281.990689574502</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y13" t="n">
-        <v>1061.198110430972</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5269,22 +5269,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5299,13 +5299,13 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5354,7 +5354,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126482</v>
@@ -5375,10 +5375,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>818.7109577742983</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>818.7109577742983</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>818.7109577742983</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X16" t="n">
-        <v>818.7109577742983</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>597.9183786307682</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5512,13 +5512,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5536,31 +5536,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701563</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L18" t="n">
-        <v>1024.771599890051</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241958</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.921157035281</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T19" t="n">
-        <v>1185.240178049213</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1185.240178049213</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>1185.240178049213</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>895.8230080122524</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>667.8334571142351</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5749,22 +5749,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643324</v>
@@ -5776,13 +5776,13 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
         <v>4262.357857465301</v>
@@ -5828,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>462.7283310300493</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>709.4934589365134</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1016.813592216475</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1346.676219880508</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>868.4856756861158</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>699.5494927582089</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>549.4328533458731</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>401.51975976348</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>401.51975976348</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>233.3444380833006</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557903</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557903</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>1498.916270557903</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>1270.926719659886</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y22" t="n">
-        <v>1050.134140516356</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="23">
@@ -5980,37 +5980,37 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805457</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6065,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147082</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1024.771599890051</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>972.2646934632138</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>822.148054050878</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>1387.841167119728</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>1387.841167119728</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>1387.841167119728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6220,19 +6220,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6259,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>399.1615145228562</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C28" t="n">
-        <v>399.1615145228562</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D28" t="n">
-        <v>399.1615145228562</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E28" t="n">
-        <v>359.1696912903951</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F28" t="n">
-        <v>359.1696912903951</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>909.3712637033469</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>619.9540936663864</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X28" t="n">
-        <v>619.9540936663864</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y28" t="n">
-        <v>399.1615145228562</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="29">
@@ -6442,25 +6442,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
@@ -6478,16 +6478,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6539,16 +6539,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.193690363625</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>213.3089140050932</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C31" t="n">
-        <v>213.3089140050932</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D31" t="n">
-        <v>213.3089140050932</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E31" t="n">
-        <v>213.3089140050932</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F31" t="n">
-        <v>213.3089140050932</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>1308.854947839649</v>
       </c>
       <c r="U31" t="n">
-        <v>1387.841167119728</v>
+        <v>1019.726309053207</v>
       </c>
       <c r="V31" t="n">
-        <v>1133.156678913841</v>
+        <v>765.0418208473205</v>
       </c>
       <c r="W31" t="n">
-        <v>843.7395088768803</v>
+        <v>475.6246508103599</v>
       </c>
       <c r="X31" t="n">
-        <v>615.749957978863</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y31" t="n">
-        <v>394.9573788353329</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6688,31 +6688,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6724,7 +6724,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>410.8745301331628</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1024.771599890051</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T34" t="n">
-        <v>982.3321745379599</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>982.3321745379599</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>727.647686332073</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6961,28 +6961,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>709.4934589365139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1346.676219880508</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>785.4801130615103</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>616.5439301336035</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>466.4272907212677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>318.5141971388746</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>318.5141971388746</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1187.92115703528</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>1187.92115703528</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>1187.92115703528</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>1187.92115703528</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>967.1285778917501</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7171,7 +7171,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7180,25 +7180,25 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>613.8011874802282</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>444.8650045523214</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>294.7483651399856</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>146.8352715575925</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>146.8352715575925</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>146.8352715575925</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>1244.231782352015</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>1244.231782352015</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>1016.242231453998</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>795.449652310468</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,25 +7396,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7478,16 +7478,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7593,25 +7593,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1471.669354659368</v>
       </c>
       <c r="S43" t="n">
-        <v>1335.881268530309</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="T43" t="n">
-        <v>1112.095853319815</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="U43" t="n">
-        <v>822.9672145333731</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V43" t="n">
-        <v>568.2827263274862</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W43" t="n">
-        <v>278.8655562905255</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X43" t="n">
-        <v>278.8655562905255</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y43" t="n">
         <v>278.8655562905255</v>
@@ -7627,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7660,7 +7660,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7669,7 +7669,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W46" t="n">
-        <v>428.9821957028613</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X46" t="n">
-        <v>428.9821957028613</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>428.9821957028613</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783517</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>230.7151863772027</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>176.7176547498442</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,10 +9719,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>369.0893880493729</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,13 +9968,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>124.3400780863231</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>124.3400780863228</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,13 +10442,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>176.7176547498449</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,13 +10679,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10828,10 +10828,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>93.12883721382963</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>142.2668161885945</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T19" t="n">
-        <v>218.8933918621823</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>64.30500338171971</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>124.5670006750235</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,22 +24180,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>154.2427457127105</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>106.8420576464326</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>51.56266414401836</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>33.38685156731856</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T34" t="n">
-        <v>18.01446838604213</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>96.32326220911088</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,7 +25566,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>99.79183007120255</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>82.98990566424403</v>
       </c>
       <c r="S43" t="n">
-        <v>36.51615797628597</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>185.1316309944982</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>593672.5275719949</v>
+        <v>593672.527571995</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>593672.5275719949</v>
+        <v>593672.527571995</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>821041.769864283</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
-        <v>782058.1194754175</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="F2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="G2" t="n">
-        <v>782058.1194754175</v>
+        <v>782058.119475418</v>
       </c>
       <c r="H2" t="n">
         <v>782058.1194754178</v>
       </c>
       <c r="I2" t="n">
+        <v>782058.1194754178</v>
+      </c>
+      <c r="J2" t="n">
+        <v>782058.1194754178</v>
+      </c>
+      <c r="K2" t="n">
+        <v>782058.1194754178</v>
+      </c>
+      <c r="L2" t="n">
+        <v>782058.1194754178</v>
+      </c>
+      <c r="M2" t="n">
+        <v>782058.1194754178</v>
+      </c>
+      <c r="N2" t="n">
         <v>782058.1194754179</v>
       </c>
-      <c r="J2" t="n">
-        <v>782058.1194754177</v>
-      </c>
-      <c r="K2" t="n">
-        <v>782058.1194754175</v>
-      </c>
-      <c r="L2" t="n">
-        <v>782058.1194754175</v>
-      </c>
-      <c r="M2" t="n">
-        <v>782058.1194754175</v>
-      </c>
-      <c r="N2" t="n">
-        <v>782058.1194754177</v>
-      </c>
       <c r="O2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="P2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754179</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.014195044670487e-10</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>9.129322781267672e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.074904503184371e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26423,37 +26423,37 @@
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007518</v>
+      </c>
+      <c r="F4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="G4" t="n">
-        <v>7916.731656007425</v>
-      </c>
       <c r="H4" t="n">
-        <v>7916.731656007409</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="J4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>7916.731656007418</v>
+      </c>
+      <c r="L4" t="n">
         <v>7916.731656007485</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="L4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7916.731656007484</v>
-      </c>
       <c r="N4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="O4" t="n">
         <v>7916.731656007483</v>
@@ -26475,28 +26475,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>297.763870408322</v>
       </c>
       <c r="C6" t="n">
-        <v>590265.643084953</v>
+        <v>590265.6430849532</v>
       </c>
       <c r="D6" t="n">
-        <v>590265.643084953</v>
+        <v>590265.6430849528</v>
       </c>
       <c r="E6" t="n">
-        <v>156994.0253937973</v>
+        <v>156019.434134076</v>
       </c>
       <c r="F6" t="n">
-        <v>682154.0618706936</v>
+        <v>681179.470610972</v>
       </c>
       <c r="G6" t="n">
-        <v>682154.061870693</v>
+        <v>681179.470610972</v>
       </c>
       <c r="H6" t="n">
-        <v>682154.0618706937</v>
+        <v>681179.4706109721</v>
       </c>
       <c r="I6" t="n">
-        <v>682154.0618706937</v>
+        <v>681179.470610972</v>
       </c>
       <c r="J6" t="n">
-        <v>505730.8426781008</v>
+        <v>504756.2514183791</v>
       </c>
       <c r="K6" t="n">
-        <v>682154.0618706935</v>
+        <v>681179.4706109718</v>
       </c>
       <c r="L6" t="n">
-        <v>682154.0618706935</v>
+        <v>681179.470610972</v>
       </c>
       <c r="M6" t="n">
-        <v>547353.0466368563</v>
+        <v>546378.4553771348</v>
       </c>
       <c r="N6" t="n">
-        <v>682154.0618706936</v>
+        <v>681179.4706109721</v>
       </c>
       <c r="O6" t="n">
-        <v>682154.0618706936</v>
+        <v>681179.470610972</v>
       </c>
       <c r="P6" t="n">
-        <v>682154.0618706935</v>
+        <v>681179.4706109721</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26740,10 +26740,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26755,10 +26755,10 @@
         <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26804,19 +26804,19 @@
         <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27026,19 +27026,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545554</v>
+      </c>
+      <c r="K4" t="n">
         <v>4.547473508864641e-13</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.287272754555</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>63.62198642930821</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>122.866986974162</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27438,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>169.2138872808328</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27596,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>108.5731239040509</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>25.3007837472271</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>177.1438475350533</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>89.55199276841095</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>243.3502225727917</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>57.12838650517426</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>384.5561768218182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060684</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,16 +28067,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>141.8849897811709</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>7.394985773160066e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-1.620037437533028e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>-1.449507180950604e-12</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31518,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32463,10 +32463,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,37 +32475,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35743,13 +35743,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>479.9728913332272</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504664</v>
@@ -35977,16 +35977,16 @@
         <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>327.2930933377835</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>618.3470930053973</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36688,13 +36688,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>331.4334930178478</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>274.915516674262</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
@@ -37162,13 +37162,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>425.9753597058693</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
@@ -37399,13 +37399,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37548,10 +37548,10 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4416562.024270375</v>
+        <v>4421501.287119407</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>126.6305324976341</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>29.17761882758429</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90.27998741352634</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>54.03223542166973</v>
       </c>
     </row>
     <row r="8">
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>395.0900949779775</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>159.3199338524835</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586891</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>59.72683757586863</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498003</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1587,13 +1587,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404423</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385031</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1818,7 +1818,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648052004</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.526976800218</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498017</v>
+        <v>251.0785952498028</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.64843562452406</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648052003</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>188.1607094910707</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>139.153727875004</v>
       </c>
     </row>
     <row r="32">
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722634</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>139.153727875004</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.97444673954876</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>143.2925104849745</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>6.34865682961755</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4194,16 +4194,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>33.35146980185879</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1315.737983561872</v>
+        <v>1341.294330781294</v>
       </c>
       <c r="C5" t="n">
-        <v>946.7754666214607</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="D5" t="n">
-        <v>588.5097680147103</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E5" t="n">
-        <v>202.721515416466</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>195.7760146672626</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>181.8526106058535</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8526106058535</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2667.676748768137</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2491.499261082307</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2491.499261082307</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2491.499261082307</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2491.499261082307</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>2491.499261082307</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.477155601806</v>
+        <v>2118.033502821228</v>
       </c>
       <c r="Y5" t="n">
-        <v>1702.337823625994</v>
+        <v>1727.894170845416</v>
       </c>
     </row>
     <row r="6">
@@ -4637,34 +4637,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245972</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245972</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245972</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="W7" t="n">
-        <v>513.8405610245972</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="X7" t="n">
-        <v>513.8405610245972</v>
+        <v>256.4340909802017</v>
       </c>
       <c r="Y7" t="n">
-        <v>293.047981881067</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>802.0401021781393</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C8" t="n">
-        <v>433.0775852377275</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097704</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097704</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177357</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4819,37 +4819,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2305.013687749267</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2305.013687749267</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2305.013687749267</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1952.245032479153</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>1578.779274218073</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>1188.639942242261</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="9">
@@ -4874,28 +4874,28 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036447</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,58 +5017,58 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5086,7 +5086,7 @@
         <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5129,7 +5129,7 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
         <v>2051.878056918008</v>
@@ -5235,10 +5235,10 @@
         <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W13" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
         <v>97.21709146028587</v>
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,34 +5263,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5466,16 +5466,16 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
         <v>97.21709146028587</v>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,25 +5500,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5536,10 +5536,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,7 +5591,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126483</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241958</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,34 +5737,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823781</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514077</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643324</v>
@@ -5776,28 +5776,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2317.834075963124</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W22" t="n">
-        <v>441.900558318119</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="23">
@@ -5980,37 +5980,37 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2317.834075963124</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6293,13 +6293,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6308,19 +6308,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,19 +6448,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
@@ -6484,10 +6484,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126483</v>
@@ -6548,16 +6548,16 @@
         <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.193690363625</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241958</v>
@@ -6630,7 +6630,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1308.854947839649</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>1019.726309053207</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V31" t="n">
-        <v>765.0418208473205</v>
+        <v>755.1831334811264</v>
       </c>
       <c r="W31" t="n">
-        <v>475.6246508103599</v>
+        <v>465.7659634441658</v>
       </c>
       <c r="X31" t="n">
-        <v>247.6350999123426</v>
+        <v>237.7764125461485</v>
       </c>
       <c r="Y31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6715,13 +6715,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
@@ -6779,22 +6779,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6858,7 +6858,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
         <v>259.7851881688072</v>
@@ -6867,7 +6867,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,28 +6876,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X34" t="n">
         <v>97.21709146028587</v>
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003442</v>
@@ -6925,22 +6925,22 @@
         <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6949,40 +6949,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952638</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7171,7 +7171,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7183,10 +7183,10 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643324</v>
@@ -7198,28 +7198,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="41">
@@ -7405,7 +7405,7 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028562</v>
@@ -7414,7 +7414,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,7 +7429,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1471.669354659368</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1271.749344574921</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1271.749344574921</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1271.749344574921</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>1017.064856369034</v>
+        <v>1354.17636097712</v>
       </c>
       <c r="W43" t="n">
-        <v>727.647686332073</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X43" t="n">
-        <v>499.6581354340557</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y43" t="n">
-        <v>278.8655562905255</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="44">
@@ -7648,13 +7648,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>272.5660590645741</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>103.6298761366672</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>103.6298761366672</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>103.6298761366672</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>103.6298761366672</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7836,22 +7836,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U46" t="n">
-        <v>675.0071030383442</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V46" t="n">
-        <v>420.3226148324574</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W46" t="n">
-        <v>130.9054447954967</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>675.007103038344</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>454.2145238948139</v>
       </c>
     </row>
   </sheetData>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783517</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8777,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928333</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.7164198729829</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>82.39383318338574</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>64.30500338171971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271324</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.8451328388535</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24855,7 +24855,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>33.38685156731856</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>79.4309254770908</v>
       </c>
     </row>
     <row r="32">
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>64.30500338171929</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>82.98990566424403</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -25845,7 +25845,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>160.14491163376</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>192.3581855871784</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26316,19 +26316,19 @@
         <v>821041.769864283</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="D2" t="n">
         <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
+        <v>782058.1194754175</v>
+      </c>
+      <c r="F2" t="n">
+        <v>782058.1194754175</v>
+      </c>
+      <c r="G2" t="n">
         <v>782058.1194754178</v>
-      </c>
-      <c r="F2" t="n">
-        <v>782058.1194754178</v>
-      </c>
-      <c r="G2" t="n">
-        <v>782058.119475418</v>
       </c>
       <c r="H2" t="n">
         <v>782058.1194754178</v>
@@ -26337,25 +26337,25 @@
         <v>782058.1194754178</v>
       </c>
       <c r="J2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.119475418</v>
       </c>
       <c r="K2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.119475418</v>
       </c>
       <c r="L2" t="n">
         <v>782058.1194754178</v>
       </c>
       <c r="M2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.119475418</v>
       </c>
       <c r="N2" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.119475418</v>
       </c>
       <c r="O2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="P2" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.1194754174</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
-        <v>9.129322781267672e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007518</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
+        <v>7916.731656007436</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7916.731656007412</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7916.731656007402</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7916.73165600748</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7916.731656007414</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7916.73165600741</v>
+      </c>
+      <c r="O4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="G4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7916.731656007418</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="P4" t="n">
         <v>7916.731656007485</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7916.731656007485</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7916.731656007484</v>
       </c>
     </row>
     <row r="5">
@@ -26475,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871667</v>
       </c>
-      <c r="L5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>297.763870408322</v>
       </c>
       <c r="C6" t="n">
-        <v>590265.6430849532</v>
+        <v>590265.643084953</v>
       </c>
       <c r="D6" t="n">
-        <v>590265.6430849528</v>
+        <v>590265.6430849527</v>
       </c>
       <c r="E6" t="n">
-        <v>156019.434134076</v>
+        <v>156896.5662678251</v>
       </c>
       <c r="F6" t="n">
-        <v>681179.470610972</v>
+        <v>682056.6027447213</v>
       </c>
       <c r="G6" t="n">
-        <v>681179.470610972</v>
+        <v>682056.6027447213</v>
       </c>
       <c r="H6" t="n">
-        <v>681179.4706109721</v>
+        <v>682056.6027447216</v>
       </c>
       <c r="I6" t="n">
-        <v>681179.470610972</v>
+        <v>682056.6027447216</v>
       </c>
       <c r="J6" t="n">
-        <v>504756.2514183791</v>
+        <v>505633.3835521289</v>
       </c>
       <c r="K6" t="n">
-        <v>681179.4706109718</v>
+        <v>682056.6027447218</v>
       </c>
       <c r="L6" t="n">
-        <v>681179.470610972</v>
+        <v>682056.6027447216</v>
       </c>
       <c r="M6" t="n">
-        <v>546378.4553771348</v>
+        <v>547255.5875108845</v>
       </c>
       <c r="N6" t="n">
-        <v>681179.4706109721</v>
+        <v>682056.6027447218</v>
       </c>
       <c r="O6" t="n">
-        <v>681179.470610972</v>
+        <v>682056.6027447215</v>
       </c>
       <c r="P6" t="n">
-        <v>681179.4706109721</v>
+        <v>682056.6027447212</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26755,31 +26755,31 @@
         <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26804,28 +26804,28 @@
         <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>25.3007837472271</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>25.3007837472274</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>89.55199276841095</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>164.5524179304251</v>
       </c>
     </row>
     <row r="8">
@@ -27864,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>11.78595076373398</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>57.12838650517426</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060684</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831823</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>7.394985773160066e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-1.56319401867222e-12</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-1.790567694115452e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-1.449507180950604e-12</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30231,7 +30231,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-1.35832487282136e-12</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -31518,10 +31518,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35497,10 +35497,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36217,13 +36217,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36928,7 +36928,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,13 +37150,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37165,7 +37165,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,13 +37387,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
